--- a/ArtificalNeuronalColorNetwork/data.xlsx
+++ b/ArtificalNeuronalColorNetwork/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\Arbeit\NewProjektFolder\Picture_Candela_Calculator\ArtificalNeuronalColorNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DFB0E8-453E-4271-9BDC-CE1A1E7BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D6C19-1A45-4F26-84FA-C70202B53785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="2830" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>rot</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>helligkeit_candela</t>
+  </si>
+  <si>
+    <t>neu</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D149"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2396,7 +2399,7 @@
         <v>199.3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>8.3787600000000004E-2</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>227.6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.106</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>262.5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0.127632</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.126836</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.11755599999999999</v>
       </c>
@@ -2464,6 +2467,2126 @@
       </c>
       <c r="D149">
         <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>0.69735899999999995</v>
+      </c>
+      <c r="B150">
+        <v>0.77867900000000001</v>
+      </c>
+      <c r="C150">
+        <v>0.815944</v>
+      </c>
+      <c r="D150" s="1">
+        <v>1770</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>0.76591299999999995</v>
+      </c>
+      <c r="B151">
+        <v>0.83272599999999997</v>
+      </c>
+      <c r="C151">
+        <v>4.8899499999999999E-2</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>0.55628999999999995</v>
+      </c>
+      <c r="B152">
+        <v>0.83026299999999997</v>
+      </c>
+      <c r="C152">
+        <v>0.85534600000000005</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>0.40348400000000001</v>
+      </c>
+      <c r="B153">
+        <v>0.90927100000000005</v>
+      </c>
+      <c r="C153">
+        <v>0.21824199999999999</v>
+      </c>
+      <c r="D153" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>0.73631500000000005</v>
+      </c>
+      <c r="B154">
+        <v>0.29919499999999999</v>
+      </c>
+      <c r="C154">
+        <v>0.999058</v>
+      </c>
+      <c r="D154" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>0.80404100000000001</v>
+      </c>
+      <c r="B155">
+        <v>6.2233999999999998E-2</v>
+      </c>
+      <c r="C155">
+        <v>4.0769600000000003E-2</v>
+      </c>
+      <c r="D155" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>0.16905500000000001</v>
+      </c>
+      <c r="B156">
+        <v>0.23335</v>
+      </c>
+      <c r="C156">
+        <v>0.90811799999999998</v>
+      </c>
+      <c r="D156" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>0.65276500000000004</v>
+      </c>
+      <c r="B157">
+        <v>0.75558899999999996</v>
+      </c>
+      <c r="C157">
+        <v>0.79685499999999998</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>0.74987000000000004</v>
+      </c>
+      <c r="B158">
+        <v>0.85155700000000001</v>
+      </c>
+      <c r="C158">
+        <v>1.73911E-2</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>0.52391699999999997</v>
+      </c>
+      <c r="B159">
+        <v>0.82531200000000005</v>
+      </c>
+      <c r="C159">
+        <v>0.83861200000000002</v>
+      </c>
+      <c r="D159" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>0.34454800000000002</v>
+      </c>
+      <c r="B160">
+        <v>0.91749800000000004</v>
+      </c>
+      <c r="C160">
+        <v>0.16655300000000001</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>0.716638</v>
+      </c>
+      <c r="B161">
+        <v>0.235234</v>
+      </c>
+      <c r="C161">
+        <v>0.99968199999999996</v>
+      </c>
+      <c r="D161" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>0.753193</v>
+      </c>
+      <c r="B162">
+        <v>1.2365900000000001E-2</v>
+      </c>
+      <c r="C162">
+        <v>6.2002899999999998E-3</v>
+      </c>
+      <c r="D162" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>7.1391499999999997E-2</v>
+      </c>
+      <c r="B163">
+        <v>0.154722</v>
+      </c>
+      <c r="C163">
+        <v>0.88804499999999997</v>
+      </c>
+      <c r="D163" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>0.66147900000000004</v>
+      </c>
+      <c r="B164">
+        <v>0.77166000000000001</v>
+      </c>
+      <c r="C164">
+        <v>0.82017600000000002</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>0.74441199999999996</v>
+      </c>
+      <c r="B165">
+        <v>0.83838100000000004</v>
+      </c>
+      <c r="C165">
+        <v>2.00194E-2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>0.49937999999999999</v>
+      </c>
+      <c r="B166">
+        <v>0.81067100000000003</v>
+      </c>
+      <c r="C166">
+        <v>0.83871700000000005</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>0.32153700000000002</v>
+      </c>
+      <c r="B167">
+        <v>0.88861199999999996</v>
+      </c>
+      <c r="C167">
+        <v>0.13535900000000001</v>
+      </c>
+      <c r="D167" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>0.67731200000000003</v>
+      </c>
+      <c r="B168">
+        <v>0.22753999999999999</v>
+      </c>
+      <c r="C168">
+        <v>0.99936599999999998</v>
+      </c>
+      <c r="D168" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>0.675095</v>
+      </c>
+      <c r="B169">
+        <v>0.77680800000000005</v>
+      </c>
+      <c r="C169">
+        <v>7.1402000000000002E-3</v>
+      </c>
+      <c r="D169" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>0.43130400000000002</v>
+      </c>
+      <c r="B170">
+        <v>0.786304</v>
+      </c>
+      <c r="C170">
+        <v>0.80101199999999995</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>0.29927999999999999</v>
+      </c>
+      <c r="B171">
+        <v>0.87963999999999998</v>
+      </c>
+      <c r="C171">
+        <v>0.10187599999999999</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>0.64037699999999997</v>
+      </c>
+      <c r="B172">
+        <v>0.18504200000000001</v>
+      </c>
+      <c r="C172">
+        <v>0.99943499999999996</v>
+      </c>
+      <c r="D172" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>0.64224599999999998</v>
+      </c>
+      <c r="B173">
+        <v>9.3191200000000002E-3</v>
+      </c>
+      <c r="C173">
+        <v>4.8083800000000001E-3</v>
+      </c>
+      <c r="D173" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>6.0827899999999997E-2</v>
+      </c>
+      <c r="B174">
+        <v>0.11835</v>
+      </c>
+      <c r="C174">
+        <v>0.86273500000000003</v>
+      </c>
+      <c r="D174" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>0.49493799999999999</v>
+      </c>
+      <c r="B175">
+        <v>0.507633</v>
+      </c>
+      <c r="C175">
+        <v>0.54113800000000001</v>
+      </c>
+      <c r="D175" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>0.51327400000000001</v>
+      </c>
+      <c r="B176">
+        <v>0.53568199999999999</v>
+      </c>
+      <c r="C176">
+        <v>0.116734</v>
+      </c>
+      <c r="D176" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>0.35593900000000001</v>
+      </c>
+      <c r="B177">
+        <v>0.61276799999999998</v>
+      </c>
+      <c r="C177">
+        <v>0.63326499999999997</v>
+      </c>
+      <c r="D177" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>0.31917600000000002</v>
+      </c>
+      <c r="B178">
+        <v>0.60321599999999997</v>
+      </c>
+      <c r="C178">
+        <v>0.156975</v>
+      </c>
+      <c r="D178" s="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>0.48580099999999998</v>
+      </c>
+      <c r="B179">
+        <v>0.24213799999999999</v>
+      </c>
+      <c r="C179">
+        <v>0.69218900000000005</v>
+      </c>
+      <c r="D179" s="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>0.484429</v>
+      </c>
+      <c r="B180">
+        <v>0.155528</v>
+      </c>
+      <c r="C180">
+        <v>0.146374</v>
+      </c>
+      <c r="D180" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>0.249442</v>
+      </c>
+      <c r="B181">
+        <v>0.21773500000000001</v>
+      </c>
+      <c r="C181">
+        <v>0.61934999999999996</v>
+      </c>
+      <c r="D181" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>0.31672600000000001</v>
+      </c>
+      <c r="B182">
+        <v>0.40293099999999998</v>
+      </c>
+      <c r="C182">
+        <v>0.464725</v>
+      </c>
+      <c r="D182" s="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>0.34223100000000001</v>
+      </c>
+      <c r="B183">
+        <v>0.41700799999999999</v>
+      </c>
+      <c r="C183">
+        <v>6.6617300000000003E-3</v>
+      </c>
+      <c r="D183" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>0.14310200000000001</v>
+      </c>
+      <c r="B184">
+        <v>0.489674</v>
+      </c>
+      <c r="C184">
+        <v>0.55346499999999998</v>
+      </c>
+      <c r="D184" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>9.7622700000000007E-2</v>
+      </c>
+      <c r="B185">
+        <v>0.50116799999999995</v>
+      </c>
+      <c r="C185">
+        <v>2.1503299999999999E-2</v>
+      </c>
+      <c r="D185" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>0.293047</v>
+      </c>
+      <c r="B186">
+        <v>7.34601E-2</v>
+      </c>
+      <c r="C186">
+        <v>0.616622</v>
+      </c>
+      <c r="D186" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>0.11669499999999999</v>
+      </c>
+      <c r="B187">
+        <v>0.42091600000000001</v>
+      </c>
+      <c r="C187">
+        <v>0.465615</v>
+      </c>
+      <c r="D187" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>8.4218199999999993E-2</v>
+      </c>
+      <c r="B188">
+        <v>0.449596</v>
+      </c>
+      <c r="C188">
+        <v>1.41753E-2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>0.25689600000000001</v>
+      </c>
+      <c r="B189">
+        <v>6.0672900000000002E-2</v>
+      </c>
+      <c r="C189">
+        <v>0.57691999999999999</v>
+      </c>
+      <c r="D189" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>0.21314</v>
+      </c>
+      <c r="B190">
+        <v>7.4714600000000001E-3</v>
+      </c>
+      <c r="C190">
+        <v>6.0891000000000001E-3</v>
+      </c>
+      <c r="D190" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>2.51925E-2</v>
+      </c>
+      <c r="B191">
+        <v>4.0512199999999998E-2</v>
+      </c>
+      <c r="C191">
+        <v>0.47377599999999997</v>
+      </c>
+      <c r="D191" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>0.30376700000000001</v>
+      </c>
+      <c r="B192">
+        <v>0.37912800000000002</v>
+      </c>
+      <c r="C192">
+        <v>0.43107899999999999</v>
+      </c>
+      <c r="D192" s="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>0.33379599999999998</v>
+      </c>
+      <c r="B193">
+        <v>0.40271299999999999</v>
+      </c>
+      <c r="C193">
+        <v>5.43949E-3</v>
+      </c>
+      <c r="D193" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>0.14106299999999999</v>
+      </c>
+      <c r="B194">
+        <v>0.48314099999999999</v>
+      </c>
+      <c r="C194">
+        <v>0.54873300000000003</v>
+      </c>
+      <c r="D194" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>9.7103999999999996E-2</v>
+      </c>
+      <c r="B195">
+        <v>0.51335799999999998</v>
+      </c>
+      <c r="C195">
+        <v>2.2859999999999998E-2</v>
+      </c>
+      <c r="D195" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>0.31449899999999997</v>
+      </c>
+      <c r="B196">
+        <v>7.9338099999999995E-2</v>
+      </c>
+      <c r="C196">
+        <v>0.65707400000000005</v>
+      </c>
+      <c r="D196" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>0.26826800000000001</v>
+      </c>
+      <c r="B197">
+        <v>7.8023199999999997E-3</v>
+      </c>
+      <c r="C197">
+        <v>5.9712799999999998E-3</v>
+      </c>
+      <c r="D197" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>2.7326099999999999E-2</v>
+      </c>
+      <c r="B198">
+        <v>5.1789799999999997E-2</v>
+      </c>
+      <c r="C198">
+        <v>0.523285</v>
+      </c>
+      <c r="D198" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>0.36458800000000002</v>
+      </c>
+      <c r="B199">
+        <v>0.364145</v>
+      </c>
+      <c r="C199">
+        <v>0.38321300000000003</v>
+      </c>
+      <c r="D199" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>0.376946</v>
+      </c>
+      <c r="B200">
+        <v>0.37082700000000002</v>
+      </c>
+      <c r="C200">
+        <v>0.13458100000000001</v>
+      </c>
+      <c r="D200" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>0.27706700000000001</v>
+      </c>
+      <c r="B201">
+        <v>0.40624900000000003</v>
+      </c>
+      <c r="C201">
+        <v>0.42122199999999999</v>
+      </c>
+      <c r="D201" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>0.36949900000000002</v>
+      </c>
+      <c r="B202">
+        <v>0.344578</v>
+      </c>
+      <c r="C202">
+        <v>0.12218900000000001</v>
+      </c>
+      <c r="D202" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>0.283858</v>
+      </c>
+      <c r="B203">
+        <v>0.41562100000000002</v>
+      </c>
+      <c r="C203">
+        <v>0.444052</v>
+      </c>
+      <c r="D203" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>0.26589600000000002</v>
+      </c>
+      <c r="B204">
+        <v>0.39965000000000001</v>
+      </c>
+      <c r="C204">
+        <v>0.14279</v>
+      </c>
+      <c r="D204" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>0.37482799999999999</v>
+      </c>
+      <c r="B205">
+        <v>0.205979</v>
+      </c>
+      <c r="C205">
+        <v>0.48670799999999997</v>
+      </c>
+      <c r="D205" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>0.35590500000000003</v>
+      </c>
+      <c r="B206">
+        <v>0.146672</v>
+      </c>
+      <c r="C206">
+        <v>0.14000399999999999</v>
+      </c>
+      <c r="D206" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>0.26212400000000002</v>
+      </c>
+      <c r="B207">
+        <v>0.39143</v>
+      </c>
+      <c r="C207">
+        <v>0.124638</v>
+      </c>
+      <c r="D207" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>0.38144299999999998</v>
+      </c>
+      <c r="B208">
+        <v>0.20763499999999999</v>
+      </c>
+      <c r="C208">
+        <v>0.49360300000000001</v>
+      </c>
+      <c r="D208" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>0.38374200000000003</v>
+      </c>
+      <c r="B209">
+        <v>0.16400300000000001</v>
+      </c>
+      <c r="C209">
+        <v>0.15743799999999999</v>
+      </c>
+      <c r="D209" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>0.26013500000000001</v>
+      </c>
+      <c r="B210">
+        <v>0.209981</v>
+      </c>
+      <c r="C210">
+        <v>0.454484</v>
+      </c>
+      <c r="D210" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>0.58623800000000004</v>
+      </c>
+      <c r="B211">
+        <v>0.665072</v>
+      </c>
+      <c r="C211">
+        <v>0.71930799999999995</v>
+      </c>
+      <c r="D211">
+        <v>1300</v>
+      </c>
+      <c r="E211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>0.62022999999999995</v>
+      </c>
+      <c r="B212">
+        <v>0.67854199999999998</v>
+      </c>
+      <c r="C212">
+        <v>6.8068699999999996E-2</v>
+      </c>
+      <c r="D212">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>0.40272999999999998</v>
+      </c>
+      <c r="B213">
+        <v>0.72806599999999999</v>
+      </c>
+      <c r="C213">
+        <v>0.76846000000000003</v>
+      </c>
+      <c r="D213">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>0.325069</v>
+      </c>
+      <c r="B214">
+        <v>0.74741599999999997</v>
+      </c>
+      <c r="C214">
+        <v>0.14260700000000001</v>
+      </c>
+      <c r="D214">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>0.56348500000000001</v>
+      </c>
+      <c r="B215">
+        <v>0.23824500000000001</v>
+      </c>
+      <c r="C215">
+        <v>0.87575499999999995</v>
+      </c>
+      <c r="D215">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>0.56129499999999999</v>
+      </c>
+      <c r="B216">
+        <v>0.62989600000000001</v>
+      </c>
+      <c r="C216">
+        <v>0.67035100000000003</v>
+      </c>
+      <c r="D216">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>0.60596499999999998</v>
+      </c>
+      <c r="B217">
+        <v>0.66253700000000004</v>
+      </c>
+      <c r="C217">
+        <v>5.7910999999999997E-2</v>
+      </c>
+      <c r="D217">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>0.39843899999999999</v>
+      </c>
+      <c r="B218">
+        <v>0.72502299999999997</v>
+      </c>
+      <c r="C218">
+        <v>0.75606300000000004</v>
+      </c>
+      <c r="D218">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>0.329316</v>
+      </c>
+      <c r="B219">
+        <v>0.76720699999999997</v>
+      </c>
+      <c r="C219">
+        <v>0.15083299999999999</v>
+      </c>
+      <c r="D219">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>0.57453600000000005</v>
+      </c>
+      <c r="B220">
+        <v>0.24457599999999999</v>
+      </c>
+      <c r="C220">
+        <v>0.89362799999999998</v>
+      </c>
+      <c r="D220">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>0.57616999999999996</v>
+      </c>
+      <c r="B221">
+        <v>8.2320400000000002E-2</v>
+      </c>
+      <c r="C221">
+        <v>6.5622700000000006E-2</v>
+      </c>
+      <c r="D221">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>0.175204</v>
+      </c>
+      <c r="B222">
+        <v>0.20039199999999999</v>
+      </c>
+      <c r="C222">
+        <v>0.78714600000000001</v>
+      </c>
+      <c r="D222">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>0.53983599999999998</v>
+      </c>
+      <c r="B223">
+        <v>0.58663699999999996</v>
+      </c>
+      <c r="C223">
+        <v>4.4966100000000002E-2</v>
+      </c>
+      <c r="D223">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>0.352771</v>
+      </c>
+      <c r="B224">
+        <v>0.67614300000000005</v>
+      </c>
+      <c r="C224">
+        <v>0.69501599999999997</v>
+      </c>
+      <c r="D224">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>0.30952099999999999</v>
+      </c>
+      <c r="B225">
+        <v>0.71531999999999996</v>
+      </c>
+      <c r="C225">
+        <v>0.11602899999999999</v>
+      </c>
+      <c r="D225">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>0.52547900000000003</v>
+      </c>
+      <c r="B226">
+        <v>0.214195</v>
+      </c>
+      <c r="C226">
+        <v>0.845333</v>
+      </c>
+      <c r="D226">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>0.52554199999999995</v>
+      </c>
+      <c r="B227">
+        <v>8.1555500000000003E-2</v>
+      </c>
+      <c r="C227">
+        <v>6.8555599999999994E-2</v>
+      </c>
+      <c r="D227">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>0.17569000000000001</v>
+      </c>
+      <c r="B228">
+        <v>0.189301</v>
+      </c>
+      <c r="C228">
+        <v>0.76857600000000004</v>
+      </c>
+      <c r="D228">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>0.39589600000000003</v>
+      </c>
+      <c r="B229">
+        <v>0.50056500000000004</v>
+      </c>
+      <c r="C229">
+        <v>0.57168699999999995</v>
+      </c>
+      <c r="D229">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>0.14429800000000001</v>
+      </c>
+      <c r="B230">
+        <v>0.68004399999999998</v>
+      </c>
+      <c r="C230">
+        <v>3.2139800000000003E-2</v>
+      </c>
+      <c r="D230">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>0.42135699999999998</v>
+      </c>
+      <c r="B231">
+        <v>0.10581599999999999</v>
+      </c>
+      <c r="C231">
+        <v>0.85961900000000002</v>
+      </c>
+      <c r="D231">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>0.37545400000000001</v>
+      </c>
+      <c r="B232">
+        <v>3.9545300000000004E-3</v>
+      </c>
+      <c r="C232">
+        <v>1.8784699999999999E-3</v>
+      </c>
+      <c r="D232">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>2.8899399999999999E-2</v>
+      </c>
+      <c r="B233">
+        <v>6.4216300000000004E-2</v>
+      </c>
+      <c r="C233">
+        <v>0.69142400000000004</v>
+      </c>
+      <c r="D233">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>0.40618900000000002</v>
+      </c>
+      <c r="B234">
+        <v>0.52786299999999997</v>
+      </c>
+      <c r="C234">
+        <v>0.57625599999999999</v>
+      </c>
+      <c r="D234">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>0.46845700000000001</v>
+      </c>
+      <c r="B235">
+        <v>0.59483200000000003</v>
+      </c>
+      <c r="C235">
+        <v>4.4308200000000002E-3</v>
+      </c>
+      <c r="D235">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>0.249476</v>
+      </c>
+      <c r="B236">
+        <v>0.64488900000000005</v>
+      </c>
+      <c r="C236">
+        <v>0.66377600000000003</v>
+      </c>
+      <c r="D236">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>0.16224</v>
+      </c>
+      <c r="B237">
+        <v>0.70350800000000002</v>
+      </c>
+      <c r="C237">
+        <v>3.4238499999999998E-2</v>
+      </c>
+      <c r="D237">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>0.41200199999999998</v>
+      </c>
+      <c r="B238">
+        <v>0.10148699999999999</v>
+      </c>
+      <c r="C238">
+        <v>0.82403800000000005</v>
+      </c>
+      <c r="D238">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>0.36166100000000001</v>
+      </c>
+      <c r="B239">
+        <v>3.6154300000000002E-3</v>
+      </c>
+      <c r="C239">
+        <v>2.02688E-3</v>
+      </c>
+      <c r="D239">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>0.516096</v>
+      </c>
+      <c r="B240">
+        <v>0.59132600000000002</v>
+      </c>
+      <c r="C240">
+        <v>3.7077099999999999E-3</v>
+      </c>
+      <c r="D240">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>0.17857999999999999</v>
+      </c>
+      <c r="B241">
+        <v>0.74829400000000001</v>
+      </c>
+      <c r="C241">
+        <v>4.8257500000000002E-2</v>
+      </c>
+      <c r="D241">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>0.51043799999999995</v>
+      </c>
+      <c r="B242">
+        <v>0.14169899999999999</v>
+      </c>
+      <c r="C242">
+        <v>0.94797299999999995</v>
+      </c>
+      <c r="D242">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>0.50777000000000005</v>
+      </c>
+      <c r="B243">
+        <v>5.3700500000000003E-3</v>
+      </c>
+      <c r="C243">
+        <v>3.0158899999999998E-3</v>
+      </c>
+      <c r="D243">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>4.0139500000000002E-2</v>
+      </c>
+      <c r="B244">
+        <v>9.0115299999999995E-2</v>
+      </c>
+      <c r="C244">
+        <v>0.77665300000000004</v>
+      </c>
+      <c r="D244">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>0.41887999999999997</v>
+      </c>
+      <c r="B245">
+        <v>0.51590199999999997</v>
+      </c>
+      <c r="C245">
+        <v>0.59902999999999995</v>
+      </c>
+      <c r="D245">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>0.42520200000000002</v>
+      </c>
+      <c r="B246">
+        <v>0.52764</v>
+      </c>
+      <c r="C246">
+        <v>0.62226599999999999</v>
+      </c>
+      <c r="D246">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>0.40514699999999998</v>
+      </c>
+      <c r="B247">
+        <v>0.49997999999999998</v>
+      </c>
+      <c r="C247">
+        <v>0.61873</v>
+      </c>
+      <c r="D247">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>0.368979</v>
+      </c>
+      <c r="B248">
+        <v>0.46040399999999998</v>
+      </c>
+      <c r="C248">
+        <v>0.59051699999999996</v>
+      </c>
+      <c r="D248">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>0.33995799999999998</v>
+      </c>
+      <c r="B249">
+        <v>0.424454</v>
+      </c>
+      <c r="C249">
+        <v>0.55002600000000001</v>
+      </c>
+      <c r="D249">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>0.30617899999999998</v>
+      </c>
+      <c r="B250">
+        <v>0.38794899999999999</v>
+      </c>
+      <c r="C250">
+        <v>0.50526899999999997</v>
+      </c>
+      <c r="D250">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>0.26650299999999999</v>
+      </c>
+      <c r="B251">
+        <v>0.35467700000000002</v>
+      </c>
+      <c r="C251">
+        <v>0.461816</v>
+      </c>
+      <c r="D251">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>0.21376999999999999</v>
+      </c>
+      <c r="B252">
+        <v>0.303672</v>
+      </c>
+      <c r="C252">
+        <v>0.39129199999999997</v>
+      </c>
+      <c r="D252">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>0.159022</v>
+      </c>
+      <c r="B253">
+        <v>0.23311100000000001</v>
+      </c>
+      <c r="C253">
+        <v>0.31739899999999999</v>
+      </c>
+      <c r="D253">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>0.10792</v>
+      </c>
+      <c r="B254">
+        <v>0.151362</v>
+      </c>
+      <c r="C254">
+        <v>0.22768099999999999</v>
+      </c>
+      <c r="D254">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>5.7381000000000001E-2</v>
+      </c>
+      <c r="B255">
+        <v>8.1146499999999996E-2</v>
+      </c>
+      <c r="C255">
+        <v>0.119821</v>
+      </c>
+      <c r="D255">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>2.0325900000000001E-2</v>
+      </c>
+      <c r="B256">
+        <v>2.4694000000000001E-2</v>
+      </c>
+      <c r="C256">
+        <v>4.0407400000000003E-2</v>
+      </c>
+      <c r="D256">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>5.3856700000000004E-3</v>
+      </c>
+      <c r="B257">
+        <v>5.9925000000000004E-3</v>
+      </c>
+      <c r="C257">
+        <v>7.9745700000000003E-3</v>
+      </c>
+      <c r="D257">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>0.40416400000000002</v>
+      </c>
+      <c r="B258">
+        <v>0.512629</v>
+      </c>
+      <c r="C258">
+        <v>0.60165400000000002</v>
+      </c>
+      <c r="D258">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>0.40462300000000001</v>
+      </c>
+      <c r="B259">
+        <v>0.50918699999999995</v>
+      </c>
+      <c r="C259">
+        <v>0.615734</v>
+      </c>
+      <c r="D259">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>0.37877699999999997</v>
+      </c>
+      <c r="B260">
+        <v>0.47750900000000002</v>
+      </c>
+      <c r="C260">
+        <v>0.60387400000000002</v>
+      </c>
+      <c r="D260">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>0.34455000000000002</v>
+      </c>
+      <c r="B261">
+        <v>0.43246800000000002</v>
+      </c>
+      <c r="C261">
+        <v>0.56467699999999998</v>
+      </c>
+      <c r="D261">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>0.31514300000000001</v>
+      </c>
+      <c r="B262">
+        <v>0.396032</v>
+      </c>
+      <c r="C262">
+        <v>0.51902899999999996</v>
+      </c>
+      <c r="D262">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>0.27948899999999999</v>
+      </c>
+      <c r="B263">
+        <v>0.35149000000000002</v>
+      </c>
+      <c r="C263">
+        <v>0.46792299999999998</v>
+      </c>
+      <c r="D263">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>0.23527500000000001</v>
+      </c>
+      <c r="B264">
+        <v>0.307257</v>
+      </c>
+      <c r="C264">
+        <v>0.41327000000000003</v>
+      </c>
+      <c r="D264">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>0.18798599999999999</v>
+      </c>
+      <c r="B265">
+        <v>0.25139800000000001</v>
+      </c>
+      <c r="C265">
+        <v>0.34928599999999999</v>
+      </c>
+      <c r="D265">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>0.13964599999999999</v>
+      </c>
+      <c r="B266">
+        <v>0.18728</v>
+      </c>
+      <c r="C266">
+        <v>0.27098899999999998</v>
+      </c>
+      <c r="D266">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>0.24838099999999999</v>
+      </c>
+      <c r="B267">
+        <v>0.32344600000000001</v>
+      </c>
+      <c r="C267">
+        <v>0.40504200000000001</v>
+      </c>
+      <c r="D267">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>0.21255499999999999</v>
+      </c>
+      <c r="B268">
+        <v>0.28800500000000001</v>
+      </c>
+      <c r="C268">
+        <v>0.37623299999999998</v>
+      </c>
+      <c r="D268">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>0.17172799999999999</v>
+      </c>
+      <c r="B269">
+        <v>0.24155299999999999</v>
+      </c>
+      <c r="C269">
+        <v>0.32709899999999997</v>
+      </c>
+      <c r="D269">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>0.12895799999999999</v>
+      </c>
+      <c r="B270">
+        <v>0.186362</v>
+      </c>
+      <c r="C270">
+        <v>0.26326699999999997</v>
+      </c>
+      <c r="D270">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>8.7350200000000003E-2</v>
+      </c>
+      <c r="B271">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="C271">
+        <v>0.18684400000000001</v>
+      </c>
+      <c r="D271">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>4.5870800000000003E-2</v>
+      </c>
+      <c r="B272">
+        <v>6.7141999999999993E-2</v>
+      </c>
+      <c r="C272">
+        <v>9.9141900000000005E-2</v>
+      </c>
+      <c r="D272">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>1.6766900000000001E-2</v>
+      </c>
+      <c r="B273">
+        <v>2.2240099999999999E-2</v>
+      </c>
+      <c r="C273">
+        <v>3.31235E-2</v>
+      </c>
+      <c r="D273">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>4.6179200000000002E-3</v>
+      </c>
+      <c r="B274">
+        <v>5.4362500000000001E-3</v>
+      </c>
+      <c r="C274">
+        <v>7.0090600000000001E-3</v>
+      </c>
+      <c r="D274">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>0.365066</v>
+      </c>
+      <c r="B275">
+        <v>0.46227099999999999</v>
+      </c>
+      <c r="C275">
+        <v>0.52438399999999996</v>
+      </c>
+      <c r="D275">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>0.37432700000000002</v>
+      </c>
+      <c r="B276">
+        <v>0.48327700000000001</v>
+      </c>
+      <c r="C276">
+        <v>0.55484599999999995</v>
+      </c>
+      <c r="D276">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>0.36328199999999999</v>
+      </c>
+      <c r="B277">
+        <v>0.47761799999999999</v>
+      </c>
+      <c r="C277">
+        <v>0.55093999999999999</v>
+      </c>
+      <c r="D277">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>0.33384000000000003</v>
+      </c>
+      <c r="B278">
+        <v>0.44614700000000002</v>
+      </c>
+      <c r="C278">
+        <v>0.52143600000000001</v>
+      </c>
+      <c r="D278">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>0.31409700000000002</v>
+      </c>
+      <c r="B279">
+        <v>0.42398400000000003</v>
+      </c>
+      <c r="C279">
+        <v>0.494479</v>
+      </c>
+      <c r="D279">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>0.28002899999999997</v>
+      </c>
+      <c r="B280">
+        <v>0.387216</v>
+      </c>
+      <c r="C280">
+        <v>0.45262200000000002</v>
+      </c>
+      <c r="D280">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>0.23855999999999999</v>
+      </c>
+      <c r="B281">
+        <v>0.34304800000000002</v>
+      </c>
+      <c r="C281">
+        <v>0.40309400000000001</v>
+      </c>
+      <c r="D281">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>0.19084000000000001</v>
+      </c>
+      <c r="B282">
+        <v>0.287246</v>
+      </c>
+      <c r="C282">
+        <v>0.34481899999999999</v>
+      </c>
+      <c r="D282">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>0.14114699999999999</v>
+      </c>
+      <c r="B283">
+        <v>0.21953400000000001</v>
+      </c>
+      <c r="C283">
+        <v>0.27692600000000001</v>
+      </c>
+      <c r="D283">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>9.7839099999999998E-2</v>
+      </c>
+      <c r="B284">
+        <v>0.150284</v>
+      </c>
+      <c r="C284">
+        <v>0.19386100000000001</v>
+      </c>
+      <c r="D284">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>5.1699599999999998E-2</v>
+      </c>
+      <c r="B285">
+        <v>7.8857200000000002E-2</v>
+      </c>
+      <c r="C285">
+        <v>9.9174399999999996E-2</v>
+      </c>
+      <c r="D285">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>1.8640400000000001E-2</v>
+      </c>
+      <c r="B286">
+        <v>2.5203099999999999E-2</v>
+      </c>
+      <c r="C286">
+        <v>3.2057299999999997E-2</v>
+      </c>
+      <c r="D286">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>5.0151500000000003E-3</v>
+      </c>
+      <c r="B287">
+        <v>5.6252999999999997E-3</v>
+      </c>
+      <c r="C287">
+        <v>6.61693E-3</v>
+      </c>
+      <c r="D287">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>1.70717E-3</v>
+      </c>
+      <c r="B288">
+        <v>1.96743E-3</v>
+      </c>
+      <c r="C288">
+        <v>2.1419500000000001E-3</v>
+      </c>
+      <c r="D288">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>0.35117399999999999</v>
+      </c>
+      <c r="B289">
+        <v>0.45335799999999998</v>
+      </c>
+      <c r="C289">
+        <v>0.50822699999999998</v>
+      </c>
+      <c r="D289">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>0.32609100000000002</v>
+      </c>
+      <c r="B290">
+        <v>0.42976700000000001</v>
+      </c>
+      <c r="C290">
+        <v>0.49113400000000001</v>
+      </c>
+      <c r="D290">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>0.30853799999999998</v>
+      </c>
+      <c r="B291">
+        <v>0.41471200000000003</v>
+      </c>
+      <c r="C291">
+        <v>0.47451700000000002</v>
+      </c>
+      <c r="D291">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>0.28128599999999998</v>
+      </c>
+      <c r="B292">
+        <v>0.38482100000000002</v>
+      </c>
+      <c r="C292">
+        <v>0.444471</v>
+      </c>
+      <c r="D292">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>0.24302099999999999</v>
+      </c>
+      <c r="B293">
+        <v>0.34143099999999998</v>
+      </c>
+      <c r="C293">
+        <v>0.396673</v>
+      </c>
+      <c r="D293">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>0.19475999999999999</v>
+      </c>
+      <c r="B294">
+        <v>0.286165</v>
+      </c>
+      <c r="C294">
+        <v>0.34456599999999998</v>
+      </c>
+      <c r="D294">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>0.14564299999999999</v>
+      </c>
+      <c r="B295">
+        <v>0.22275600000000001</v>
+      </c>
+      <c r="C295">
+        <v>0.28381800000000001</v>
+      </c>
+      <c r="D295">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>0.101546</v>
+      </c>
+      <c r="B296">
+        <v>0.15867300000000001</v>
+      </c>
+      <c r="C296">
+        <v>0.20191600000000001</v>
+      </c>
+      <c r="D296">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>5.5132E-2</v>
+      </c>
+      <c r="B297">
+        <v>8.6966500000000002E-2</v>
+      </c>
+      <c r="C297">
+        <v>0.106044</v>
+      </c>
+      <c r="D297">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>1.97419E-2</v>
+      </c>
+      <c r="B298">
+        <v>2.8016300000000001E-2</v>
+      </c>
+      <c r="C298">
+        <v>3.4755800000000003E-2</v>
+      </c>
+      <c r="D298">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>5.3097200000000004E-3</v>
+      </c>
+      <c r="B299">
+        <v>6.0426899999999999E-3</v>
+      </c>
+      <c r="C299">
+        <v>7.1972499999999997E-3</v>
+      </c>
+      <c r="D299">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>1.8821599999999999E-3</v>
+      </c>
+      <c r="B300">
+        <v>2.0495600000000002E-3</v>
+      </c>
+      <c r="C300">
+        <v>2.3657600000000002E-3</v>
+      </c>
+      <c r="D300">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
